--- a/biology/Zoologie/Cowboys_contre_Dinosaures/Cowboys_contre_Dinosaures.xlsx
+++ b/biology/Zoologie/Cowboys_contre_Dinosaures/Cowboys_contre_Dinosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cowboys contre Dinosaures est un film de science-fiction américain réalisé par Ari Novak, sorti en 2015. Il met en vedettes dans les rôles principaux Eric Roberts, Rib Hillis et Casey Fitzgerald[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cowboys contre Dinosaures est un film de science-fiction américain réalisé par Ari Novak, sorti en 2015. Il met en vedettes dans les rôles principaux Eric Roberts, Rib Hillis et Casey Fitzgerald.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une petite ville américaine, une grotte dans laquelle vivent des dinosaures est ouverte par une explosion dans une mine d’iridium. Les dinosaures tuent plusieurs mineurs. Seul Quaid s’échappe, mais personne ne croit son histoire. Même lorsqu’il tue plus tard l’un des dinosaures et arrive en ville avec la carcasse, le propriétaire de la mine Marcus et le shérif Henry tentent de dissimuler la vérité.
 Alors que de plus en plus de dinosaures envahissent la ville et tuent les habitants, les survivants se retranchent dans un restaurant. Le Dr Sinclair, un scientifique, leur explique que le sang des dinosaures est du méthane à cause de leur vie dans la grotte souterraine, ce qui explique pourquoi ils peuvent être tués par le feu.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eric Roberts : Trent Walker
 Rib Hillis : Val Walker
@@ -565,7 +581,7 @@
 Winston Housel : Security 2
 Joe Josephson : Bar Tender
 Madison Kent : Tina
-JB Klyap : Lou[1]</t>
+JB Klyap : Lou</t>
         </is>
       </c>
     </row>
@@ -593,9 +609,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cowboys contre Dinosaures a été tourné à Emigrant, dans le Montana, aux États-Unis. Le film est sorti le 19 mai 2015 aux États-Unis[1] et le 30 octobre 2015 en Allemagne. Le 21 septembre 2018, le film a été diffusé sur Tele 5 dans le cadre de la série Die schlechtesten Filme aller Zeiten (SchleFaZ)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cowboys contre Dinosaures a été tourné à Emigrant, dans le Montana, aux États-Unis. Le film est sorti le 19 mai 2015 aux États-Unis et le 30 octobre 2015 en Allemagne. Le 21 septembre 2018, le film a été diffusé sur Tele 5 dans le cadre de la série Die schlechtesten Filme aller Zeiten (SchleFaZ).
 </t>
         </is>
       </c>
@@ -624,10 +642,12 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filmdienst décrit un « Film trash avec une prémisse absurde, qui repose sur des filles en débardeur et shorts serrés et des lézards préhistoriques mal animés[2]. »
-Cowboys contre Dinosaures recueille un score d’audience de 19% sur Rotten Tomatoes[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filmdienst décrit un « Film trash avec une prémisse absurde, qui repose sur des filles en débardeur et shorts serrés et des lézards préhistoriques mal animés. »
+Cowboys contre Dinosaures recueille un score d’audience de 19% sur Rotten Tomatoes.
 </t>
         </is>
       </c>
